--- a/ONCHO/Impact Assessments/Nigeria/2024/ogun/ng_oncho_stop_202403_2_part_ogun.xlsx
+++ b/ONCHO/Impact Assessments/Nigeria/2024/ogun/ng_oncho_stop_202403_2_part_ogun.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\ekiti\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Nigeria\2024\ogun\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565B09F3-43DA-4F59-80D5-90816A2EFDEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A5DB97-FC70-44E2-B976-BBC207F4F2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -273,10 +273,10 @@
     <t>community</t>
   </si>
   <si>
-    <t>ng_oncho_stop_202403_2_participant</t>
-  </si>
-  <si>
-    <t>(2024 Mar) - 2. Participant Form</t>
+    <t>ng_oncho_stop_202403_2_part_ogun</t>
+  </si>
+  <si>
+    <t>(2024 Mar) - 2. Participant Form Ogun State</t>
   </si>
 </sst>
 </file>
@@ -1103,7 +1103,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9:XFD100"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -1228,7 +1228,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
